--- a/nirams_ii_input_template.xlsx
+++ b/nirams_ii_input_template.xlsx
@@ -193,18 +193,12 @@
     <t>Parameter CSV</t>
   </si>
   <si>
-    <t>C:\Users\user\Documents\JHI\NIRAMS_2015\NIRAMS_Output\param_combos.csv</t>
-  </si>
-  <si>
     <t>Output HDF5 path</t>
   </si>
   <si>
     <t>File name for the output HDF5 file</t>
   </si>
   <si>
-    <t>C:\Users\user\Documents\JHI\NIRAMS_2015\NIRAMS_Output\nirams_output.h5</t>
-  </si>
-  <si>
     <t>File name for the output CSV of parameter combinations</t>
   </si>
   <si>
@@ -217,22 +211,28 @@
     <t>Choose whether to write output to GeoTiff format as well as HDF5  (1=yes; 0=no)</t>
   </si>
   <si>
-    <t>C:\Users\user\Documents\JHI\NIRAMS_2015\nirams_ii_input.h5</t>
-  </si>
-  <si>
-    <t>C:\Users\user\Documents\JHI\NIRAMS_2015\NIRAMS_Output</t>
-  </si>
-  <si>
-    <t>C:\Users\user\Documents\JHI\NIRAMS_2015\NIRAMS_Output\GeoTiffs</t>
-  </si>
-  <si>
-    <t>C:\Users\user\Documents\JHI\NIRAMS_2015\NIRAMS_Output\Multiproc_GeoTiffs</t>
-  </si>
-  <si>
     <t>0.01, 0.02</t>
   </si>
   <si>
-    <t>1.0, 1.1</t>
+    <t>D:\nirams_ii_input.h5</t>
+  </si>
+  <si>
+    <t>D:\NIRAMS_Output</t>
+  </si>
+  <si>
+    <t>D:\NIRAMS_Output\GeoTiffs</t>
+  </si>
+  <si>
+    <t>D:\NIRAMS_Output\param_combos.csv</t>
+  </si>
+  <si>
+    <t>D:\NIRAMS_Output\nirams_output.h5</t>
+  </si>
+  <si>
+    <t>D:\NIRAMS_Output\Multiproc_GeoTiffs</t>
+  </si>
+  <si>
+    <t>1.0, 1.1, 1.2</t>
   </si>
 </sst>
 </file>
@@ -699,9 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -747,7 +745,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -761,7 +759,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -769,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>39</v>
@@ -789,7 +787,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -909,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
@@ -1080,9 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1142,7 +1138,7 @@
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1150,27 +1146,27 @@
         <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1178,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>39</v>
@@ -1198,7 +1194,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>39</v>
@@ -1394,7 +1390,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
